--- a/tracklets/044.xlsx
+++ b/tracklets/044.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as16542/OneDrive - University of Bristol/Repositories/Metric Learning Open Cows/tracklets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486942DE-6E4A-9048-9296-6351B45F3256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -154,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +201,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,20 +216,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="000015.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="000015.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -228,8 +248,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="0"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3683000" y="0"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="000043.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1181100"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="000037.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="2362200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="000014.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="3517900"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -241,33 +393,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="000043.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="1162050"/>
-          <a:ext cx="1181100" cy="1181100"/>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="000019.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="4686300"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -279,33 +437,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="000037.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="2324100"/>
-          <a:ext cx="1181100" cy="1181100"/>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="000040.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="5867400"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -317,133 +481,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="000014.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="3486150"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="000019.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="4648200"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="000040.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="5810250"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="000046.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="000046.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -456,32 +512,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="6972300"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3670300" y="7010400"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="000044.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="000044.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -494,32 +556,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="8134350"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="5054600" y="8178800"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="000011.jpg"/>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="000011.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -532,32 +600,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="9296400"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3733800" y="9372600"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="000002.jpg"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="000002.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -570,32 +644,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="10458450"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3759200" y="10515600"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="000041.jpg"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="000041.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -608,32 +688,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="11620500"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3746500" y="11684000"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="000003.jpg"/>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="000003.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -646,32 +732,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="12782550"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3695700" y="12877800"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="000032.jpg"/>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="000032.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -684,32 +776,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="13944600"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3695700" y="14084300"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="000025.jpg"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="000025.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -722,32 +820,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="15106650"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="5029200" y="15189200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="000012.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="000012.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -760,32 +864,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="16268700"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+          <a:off x="3695700" y="16370300"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1155700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="000018.jpg"/>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="000018.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -798,32 +908,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="17430750"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="17513300"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="000013.jpg"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="000013.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -836,8 +952,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="18592800"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3683000" y="18694400"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="000017.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="19888200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="000008.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="21056600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,95 +1053,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="000017.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="19754850"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="000008.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="20916900"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="000035.jpg"/>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="000035.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -950,32 +1084,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="22078950"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3670300" y="22225000"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="000005.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="000005.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -988,32 +1128,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="23241000"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3683000" y="23380700"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="000001.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="000001.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1026,32 +1172,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="24403050"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3695700" y="24549100"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="000006.jpg"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="000006.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1064,32 +1216,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="25565100"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="5029200" y="25704800"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="000023.jpg"/>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="000023.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1102,32 +1260,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="26727150"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+          <a:off x="3708400" y="26898600"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1155700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="000026.jpg"/>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="000026.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1140,32 +1304,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="27889200"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="28028900"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="000036.jpg"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="000036.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1178,8 +1348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="29051250"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3683000" y="29210000"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,19 +1361,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1320800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="000010.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="000010.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1216,32 +1392,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="30213300"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3657600" y="30391100"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="000039.jpg"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="000039.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1254,8 +1436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="31375350"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3683000" y="31546800"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,19 +1449,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="000004.jpg"/>
+        <xdr:cNvPr id="30" name="Picture 29" descr="000004.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1292,32 +1480,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="32537400"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3670300" y="32715200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="000033.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="000033.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1330,32 +1524,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="33699450"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3683000" y="33896300"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="000034.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="000034.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1368,32 +1568,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="34861500"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3695700" y="35064700"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="000028.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="000028.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1406,32 +1612,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="36023550"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3708400" y="36233100"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="000030.jpg"/>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="000030.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1444,32 +1656,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="37185600"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3708400" y="37414200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="000045.jpg"/>
+        <xdr:cNvPr id="35" name="Picture 34" descr="000045.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1482,32 +1700,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="38347650"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="38557200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="000029.jpg"/>
+        <xdr:cNvPr id="36" name="Picture 35" descr="000029.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1520,32 +1744,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="39509700"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="39725600"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="000042.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="000042.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1558,32 +1788,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="40671750"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="3683000" y="40906700"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="000031.jpg"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="000031.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1596,8 +1832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="41833800"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3695700" y="42062400"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,19 +1845,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="000021.jpg"/>
+        <xdr:cNvPr id="39" name="Picture 38" descr="000021.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1634,32 +1876,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="42995850"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3670300" y="43230800"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="000022.jpg"/>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="000022.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1672,32 +1920,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="44157900"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="44411900"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40" descr="000038.jpg"/>
+        <xdr:cNvPr id="41" name="Picture 40" descr="000038.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1710,32 +1964,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="45319950"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="45567600"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="000016.jpg"/>
+        <xdr:cNvPr id="42" name="Picture 41" descr="000016.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1748,32 +2008,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="46482000"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="5029200" y="46736000"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42" descr="000027.jpg"/>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="000027.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1786,32 +2052,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="47644050"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+          <a:off x="5054600" y="47879000"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1155700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="000024.jpg"/>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="000024.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1824,32 +2096,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="48806100"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="49060100"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="000007.jpg"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="000007.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1862,32 +2140,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="49968150"/>
-          <a:ext cx="1181100" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="3683000" y="50241200"/>
+          <a:ext cx="1346200" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="000020.jpg"/>
+        <xdr:cNvPr id="46" name="Picture 45" descr="000020.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1900,8 +2184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="51130200"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="3683000" y="51409600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,7 +2240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,9 +2272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2022,6 +2324,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2197,243 +2517,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="92" customHeight="1">
+    <row r="1" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="92" customHeight="1">
+    <row r="2" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="92" customHeight="1">
+    <row r="3" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="92" customHeight="1">
+    <row r="4" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="92" customHeight="1">
+    <row r="5" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="92" customHeight="1">
+    <row r="6" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="92" customHeight="1">
+    <row r="7" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="92" customHeight="1">
+    <row r="8" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="92" customHeight="1">
+    <row r="9" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="92" customHeight="1">
+    <row r="10" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="92" customHeight="1">
+    <row r="11" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="92" customHeight="1">
+    <row r="12" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="92" customHeight="1">
+    <row r="13" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="92" customHeight="1">
+    <row r="14" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="92" customHeight="1">
+    <row r="15" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="92" customHeight="1">
+    <row r="16" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="92" customHeight="1">
+    <row r="17" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="92" customHeight="1">
+    <row r="18" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="92" customHeight="1">
+    <row r="19" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="92" customHeight="1">
+    <row r="20" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="92" customHeight="1">
+    <row r="21" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="92" customHeight="1">
+    <row r="22" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="92" customHeight="1">
+    <row r="23" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="92" customHeight="1">
+    <row r="24" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="92" customHeight="1">
+    <row r="25" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="92" customHeight="1">
+    <row r="26" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="92" customHeight="1">
+    <row r="27" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="92" customHeight="1">
+    <row r="28" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="92" customHeight="1">
+    <row r="29" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="92" customHeight="1">
+    <row r="30" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="92" customHeight="1">
+    <row r="31" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="92" customHeight="1">
+    <row r="32" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="92" customHeight="1">
+    <row r="33" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="92" customHeight="1">
+    <row r="34" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="92" customHeight="1">
+    <row r="35" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="92" customHeight="1">
+    <row r="36" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="92" customHeight="1">
+    <row r="37" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="92" customHeight="1">
+    <row r="38" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="92" customHeight="1">
+    <row r="39" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="92" customHeight="1">
+    <row r="40" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="92" customHeight="1">
+    <row r="41" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="92" customHeight="1">
+    <row r="42" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="92" customHeight="1">
+    <row r="43" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="92" customHeight="1">
+    <row r="44" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="92" customHeight="1">
+    <row r="45" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="92" customHeight="1"/>
+    <row r="46" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
